--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H2">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I2">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J2">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N2">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q2">
-        <v>48.26347528973677</v>
+        <v>37.407943255256</v>
       </c>
       <c r="R2">
-        <v>434.371277607631</v>
+        <v>336.671489297304</v>
       </c>
       <c r="S2">
-        <v>0.01029806993005982</v>
+        <v>0.00638475977750839</v>
       </c>
       <c r="T2">
-        <v>0.01029806993005982</v>
+        <v>0.006384759777508391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H3">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I3">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J3">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q3">
-        <v>515.9134999122953</v>
+        <v>626.5000357686373</v>
       </c>
       <c r="R3">
-        <v>4643.221499210658</v>
+        <v>5638.500321917736</v>
       </c>
       <c r="S3">
-        <v>0.1100814491303016</v>
+        <v>0.1069305575473235</v>
       </c>
       <c r="T3">
-        <v>0.1100814491303016</v>
+        <v>0.1069305575473235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H4">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I4">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J4">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N4">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q4">
-        <v>268.0547313968968</v>
+        <v>741.312183368092</v>
       </c>
       <c r="R4">
-        <v>2412.492582572072</v>
+        <v>6671.809650312827</v>
       </c>
       <c r="S4">
-        <v>0.05719535015738191</v>
+        <v>0.1265266090319065</v>
       </c>
       <c r="T4">
-        <v>0.05719535015738193</v>
+        <v>0.1265266090319065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H5">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I5">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J5">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N5">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q5">
-        <v>552.9040632624398</v>
+        <v>662.5174259828383</v>
       </c>
       <c r="R5">
-        <v>4976.136569361957</v>
+        <v>5962.656833845544</v>
       </c>
       <c r="S5">
-        <v>0.1179741963028845</v>
+        <v>0.1130779787717754</v>
       </c>
       <c r="T5">
-        <v>0.1179741963028845</v>
+        <v>0.1130779787717754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N6">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q6">
-        <v>43.96851259108333</v>
+        <v>28.0635628155</v>
       </c>
       <c r="R6">
-        <v>395.71661331975</v>
+        <v>252.5720653395</v>
       </c>
       <c r="S6">
-        <v>0.009381645533511293</v>
+        <v>0.004789867912687473</v>
       </c>
       <c r="T6">
-        <v>0.009381645533511295</v>
+        <v>0.004789867912687474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P7">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q7">
         <v>470.0023999644999</v>
@@ -883,10 +883,10 @@
         <v>4230.0215996805</v>
       </c>
       <c r="S7">
-        <v>0.1002853100211707</v>
+        <v>0.08021965811242818</v>
       </c>
       <c r="T7">
-        <v>0.1002853100211707</v>
+        <v>0.0802196581124282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N8">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O8">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P8">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q8">
-        <v>244.2005628846666</v>
+        <v>556.1348530147499</v>
       </c>
       <c r="R8">
-        <v>2197.805065962</v>
+        <v>5005.21367713275</v>
       </c>
       <c r="S8">
-        <v>0.05210554064847953</v>
+        <v>0.0949206807808182</v>
       </c>
       <c r="T8">
-        <v>0.05210554064847954</v>
+        <v>0.09492068078081821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N9">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q9">
-        <v>503.7011761228333</v>
+        <v>497.0227652871666</v>
       </c>
       <c r="R9">
-        <v>4533.3105851055</v>
+        <v>4473.2048875845</v>
       </c>
       <c r="S9">
-        <v>0.1074756822716693</v>
+        <v>0.08483147385724343</v>
       </c>
       <c r="T9">
-        <v>0.1074756822716693</v>
+        <v>0.08483147385724345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H10">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N10">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q10">
-        <v>65.17898372603989</v>
+        <v>36.572139201092</v>
       </c>
       <c r="R10">
-        <v>586.6108535343591</v>
+        <v>329.149252809828</v>
       </c>
       <c r="S10">
-        <v>0.01390736428223444</v>
+        <v>0.006242105366639251</v>
       </c>
       <c r="T10">
-        <v>0.01390736428223444</v>
+        <v>0.006242105366639251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H11">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P11">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q11">
-        <v>696.7322061446847</v>
+        <v>612.5021726341614</v>
       </c>
       <c r="R11">
-        <v>6270.589855302163</v>
+        <v>5512.519553707452</v>
       </c>
       <c r="S11">
-        <v>0.1486630819336911</v>
+        <v>0.1045414127364948</v>
       </c>
       <c r="T11">
-        <v>0.1486630819336911</v>
+        <v>0.1045414127364948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H12">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N12">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O12">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P12">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q12">
-        <v>362.0032513307564</v>
+        <v>724.749077397994</v>
       </c>
       <c r="R12">
-        <v>3258.029261976808</v>
+        <v>6522.741696581946</v>
       </c>
       <c r="S12">
-        <v>0.07724132534454878</v>
+        <v>0.1236996304924319</v>
       </c>
       <c r="T12">
-        <v>0.07724132534454879</v>
+        <v>0.1236996304924319</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H13">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N13">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q13">
-        <v>746.6873184142069</v>
+        <v>647.714827860501</v>
       </c>
       <c r="R13">
-        <v>6720.185865727862</v>
+        <v>5829.433450744508</v>
       </c>
       <c r="S13">
-        <v>0.1593220996780044</v>
+        <v>0.1105514823950777</v>
       </c>
       <c r="T13">
-        <v>0.1593220996780044</v>
+        <v>0.1105514823950777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H14">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I14">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J14">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N14">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q14">
-        <v>5.890087067501556</v>
+        <v>3.951915510234</v>
       </c>
       <c r="R14">
-        <v>53.01078360751401</v>
+        <v>35.567239592106</v>
       </c>
       <c r="S14">
-        <v>0.001256779130618689</v>
+        <v>0.0006745099836599107</v>
       </c>
       <c r="T14">
-        <v>0.00125677913061869</v>
+        <v>0.0006745099836599108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H15">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I15">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J15">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P15">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q15">
-        <v>62.96221760949467</v>
+        <v>66.185814911606</v>
       </c>
       <c r="R15">
-        <v>566.6599584854521</v>
+        <v>595.672334204454</v>
       </c>
       <c r="S15">
-        <v>0.01343436866081004</v>
+        <v>0.01129654538892251</v>
       </c>
       <c r="T15">
-        <v>0.01343436866081005</v>
+        <v>0.01129654538892251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H16">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I16">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J16">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N16">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O16">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P16">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q16">
-        <v>32.71346908412978</v>
+        <v>78.315001051713</v>
       </c>
       <c r="R16">
-        <v>294.421221757168</v>
+        <v>704.835009465417</v>
       </c>
       <c r="S16">
-        <v>0.00698013539764421</v>
+        <v>0.01336674580793075</v>
       </c>
       <c r="T16">
-        <v>0.006980135397644211</v>
+        <v>0.01336674580793075</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H17">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I17">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J17">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N17">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q17">
-        <v>67.47655557418356</v>
+        <v>69.99082718010735</v>
       </c>
       <c r="R17">
-        <v>607.289000167652</v>
+        <v>629.9174446209661</v>
       </c>
       <c r="S17">
-        <v>0.01439760157698954</v>
+        <v>0.01194598203715202</v>
       </c>
       <c r="T17">
-        <v>0.01439760157698954</v>
+        <v>0.01194598203715203</v>
       </c>
     </row>
   </sheetData>
